--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_24_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2459006.685291794</v>
+        <v>2456754.605580587</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -659,16 +659,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>92.72329049755604</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -716,16 +716,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>23.79925355567548</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +738,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883154</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>89.79171265358619</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>103.4870232461741</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>343.4798709087826</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>245.2748112147385</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,10 +953,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>32.24238685723915</v>
       </c>
       <c r="C7" t="n">
-        <v>5.647680961032332</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>62.87117804934257</v>
+        <v>120.7307820829392</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1193,10 +1193,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>80.43351554147064</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>160.2383728284214</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206823</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>81.07546534818415</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,16 +1582,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>245.8796921214435</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1616,10 +1616,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417092</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>114.0764389318028</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,13 +1819,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>107.9721668030647</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560509</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,13 +2011,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>38.2187527515831</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701328</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>81.27859867330056</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>60.42721558712929</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>107.4021082756239</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2719,16 +2719,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>214.8717600297594</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2846,7 +2846,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2956,19 +2956,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>258.1817340549294</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3247,10 +3247,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887052</v>
       </c>
       <c r="X34" t="n">
-        <v>174.8493187430266</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3427,10 +3427,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>23.10998325717174</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>40.53421095546921</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,10 +3712,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>5.890337106877586</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3791,7 +3791,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>132.6315337216688</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>53.65602513333643</v>
       </c>
     </row>
     <row r="44">
@@ -4150,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>94.05355358057936</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.0286213278503</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4325,55 +4325,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794325</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2731.767278738087</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2731.767278738087</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4386,28 +4386,28 @@
         <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>380.4321398396067</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="C4" t="n">
-        <v>380.4321398396067</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="D4" t="n">
-        <v>380.4321398396067</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E4" t="n">
-        <v>380.4321398396067</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396067</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143257</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S4" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T4" t="n">
-        <v>699.120390387711</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U4" t="n">
-        <v>608.421690737624</v>
+        <v>541.9536817013565</v>
       </c>
       <c r="V4" t="n">
-        <v>608.421690737624</v>
+        <v>541.9536817013565</v>
       </c>
       <c r="W4" t="n">
-        <v>608.421690737624</v>
+        <v>541.9536817013565</v>
       </c>
       <c r="X4" t="n">
-        <v>380.4321398396067</v>
+        <v>437.4213349880492</v>
       </c>
       <c r="Y4" t="n">
-        <v>380.4321398396067</v>
+        <v>216.6287558445191</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2295.336172843074</v>
+        <v>1887.813801820605</v>
       </c>
       <c r="C5" t="n">
-        <v>1926.373655902662</v>
+        <v>1518.851284880193</v>
       </c>
       <c r="D5" t="n">
-        <v>1568.107957295912</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E5" t="n">
-        <v>1182.319704697668</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F5" t="n">
-        <v>771.3337999080602</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>356.2613497530567</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883008</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>3072.075344883008</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>3072.075344883008</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>3072.075344883008</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y5" t="n">
-        <v>2681.936012907196</v>
+        <v>1887.813801820605</v>
       </c>
     </row>
     <row r="6">
@@ -4635,34 +4635,34 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>831.0565485757129</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396067</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4732,19 +4732,19 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
         <v>831.0565485757129</v>
@@ -4753,22 +4753,22 @@
         <v>831.0565485757129</v>
       </c>
       <c r="T7" t="n">
-        <v>831.0565485757129</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="U7" t="n">
-        <v>831.0565485757129</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="V7" t="n">
-        <v>831.0565485757129</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="W7" t="n">
-        <v>831.0565485757129</v>
+        <v>319.8727631082783</v>
       </c>
       <c r="X7" t="n">
-        <v>831.0565485757129</v>
+        <v>319.8727631082783</v>
       </c>
       <c r="Y7" t="n">
-        <v>831.0565485757129</v>
+        <v>99.08018396474822</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1624.638712032431</v>
+        <v>1648.004869410819</v>
       </c>
       <c r="C8" t="n">
-        <v>1624.638712032431</v>
+        <v>1279.042352470408</v>
       </c>
       <c r="D8" t="n">
-        <v>1266.373013425681</v>
+        <v>920.7766538636572</v>
       </c>
       <c r="E8" t="n">
-        <v>880.5847608274364</v>
+        <v>534.9884012654129</v>
       </c>
       <c r="F8" t="n">
-        <v>469.5988560378289</v>
+        <v>528.0429005162094</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
@@ -4817,37 +4817,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883008</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539437</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269323</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.778044008243</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="Y8" t="n">
-        <v>1624.638712032431</v>
+        <v>2034.604709474941</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4878,25 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>610.2639694321828</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C10" t="n">
-        <v>610.2639694321828</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D10" t="n">
-        <v>610.2639694321828</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E10" t="n">
-        <v>462.3508758497896</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F10" t="n">
-        <v>315.4609283518793</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>147.7580917265982</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="S10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="T10" t="n">
-        <v>831.0565485757129</v>
+        <v>699.1203903877102</v>
       </c>
       <c r="U10" t="n">
-        <v>831.0565485757129</v>
+        <v>410.0175235133538</v>
       </c>
       <c r="V10" t="n">
-        <v>831.0565485757129</v>
+        <v>410.0175235133538</v>
       </c>
       <c r="W10" t="n">
-        <v>831.0565485757129</v>
+        <v>410.0175235133538</v>
       </c>
       <c r="X10" t="n">
-        <v>831.0565485757129</v>
+        <v>410.0175235133538</v>
       </c>
       <c r="Y10" t="n">
-        <v>610.2639694321828</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="11">
@@ -5030,49 +5030,49 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123002</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L12" t="n">
-        <v>590.9096564684978</v>
+        <v>738.7889117913851</v>
       </c>
       <c r="M12" t="n">
-        <v>1188.28814409505</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1977.461080510509</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192269</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111683</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075776</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332384</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014776</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355934</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068007</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,37 +5340,37 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
         <v>2516.421633107662</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>948.5505208511905</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C16" t="n">
-        <v>779.6143379232836</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U16" t="n">
-        <v>1868.398285759938</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V16" t="n">
-        <v>1868.398285759938</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W16" t="n">
-        <v>1578.981115722978</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="X16" t="n">
-        <v>1350.99156482496</v>
+        <v>1205.7118147508</v>
       </c>
       <c r="Y16" t="n">
-        <v>1130.19898568143</v>
+        <v>984.9192356072698</v>
       </c>
     </row>
     <row r="17">
@@ -5504,58 +5504,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797183</v>
+        <v>208.9886740942263</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797183</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797183</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438179</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>847.644273983533</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5817,37 +5817,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273899</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>680.448174698413</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>530.3315352860773</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E22" t="n">
-        <v>382.4184417036842</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
         <v>235.5284942057738</v>
@@ -5902,19 +5902,19 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797184</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6054,34 +6054,34 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273899</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
         <v>2283.159972732779</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.868625753638</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257311</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133953</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310022</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797183</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2338.476105524075</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004712</v>
@@ -6212,22 +6212,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>1140.291933891999</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N27" t="n">
-        <v>1767.889897446606</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>699.2677182139842</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036842</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2162.875197984421</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1873.799971328619</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1619.115483122732</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1329.698313085771</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1101.708762187754</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>880.9161830442239</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,25 +6537,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1231.938859683105</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>632.7243904253734</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1716.671450151994</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1461.986961946107</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1172.569791909146</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1172.569791909146</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>951.777212765616</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,31 +6686,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6783,13 +6783,13 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>929.7309773356195</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1327.139029956954</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X34" t="n">
-        <v>1150.52355647915</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y34" t="n">
-        <v>929.7309773356195</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="35">
@@ -6923,10 +6923,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -7014,22 +7014,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>172.349019141113</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>506.2737913123336</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1103.652278938886</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N36" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>557.5558870561822</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2423.619666148774</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2240.764831803678</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2021.163366826619</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1732.088140170817</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1477.40365196493</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1187.986481927969</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>959.9969310299521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>739.2043518864219</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7160,19 +7160,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,28 +7251,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961525</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.652278938886</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N39" t="n">
-        <v>1731.250242493492</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>847.6442739835331</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711974</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7360,22 +7360,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2191.112710026075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7388,40 +7388,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,19 +7430,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>372.4964262156764</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>867.8220324314351</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1465.200520057987</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2092.798483612594</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,7 +7543,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>849.3843576263199</v>
+        <v>680.448174698413</v>
       </c>
       <c r="C43" t="n">
         <v>680.448174698413</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2312.991837396757</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2312.991837396757</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1031.03282245656</v>
+        <v>862.0966395286528</v>
       </c>
     </row>
     <row r="44">
@@ -7634,31 +7634,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O45" t="n">
-        <v>2297.690135143765</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>639.6425904082687</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C46" t="n">
-        <v>470.7064074803617</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D46" t="n">
-        <v>470.7064074803617</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="E46" t="n">
-        <v>322.7933138979686</v>
+        <v>417.7969033733013</v>
       </c>
       <c r="F46" t="n">
-        <v>175.9033664000583</v>
+        <v>270.906955875391</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>270.906955875391</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1814.174843522904</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1559.490355317017</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1270.073185280056</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1042.083634382039</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>821.2910552385084</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
   </sheetData>
@@ -23419,19 +23419,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>67.5400076700282</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23470,16 +23470,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>40.6433062151475</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>65.75554125013454</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>178.2123075861794</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>213.9188905722449</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>98.55338150863673</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>40.32043864788571</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>84.99383243580195</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>73.62417772602069</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24607,16 +24607,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24649,10 +24649,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>2.533690297528835</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>28.00274033431469</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,10 +25135,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="X34" t="n">
-        <v>50.86033664601052</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,10 +25315,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>43.26526345294994</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,10 +25600,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>211.5151132204107</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>48.39475227997582</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>164.9286282187583</v>
       </c>
     </row>
     <row r="44">
@@ -26038,7 +26038,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>46.24115926564453</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>58.15585306139383</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>801606.5898580517</v>
+        <v>801606.5898580516</v>
       </c>
     </row>
     <row r="6">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>801606.5898580517</v>
+        <v>801606.5898580516</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>801606.5898580515</v>
+        <v>801606.5898580516</v>
       </c>
     </row>
     <row r="14">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.37164482</v>
+        <v>636307.3716448202</v>
       </c>
       <c r="C2" t="n">
         <v>636307.3716448196</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448202</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="E2" t="n">
         <v>625538.6147597549</v>
@@ -26329,31 +26329,31 @@
         <v>625538.6147597549</v>
       </c>
       <c r="H2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="I2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="J2" t="n">
         <v>625538.6147597549</v>
       </c>
-      <c r="I2" t="n">
-        <v>625538.614759755</v>
-      </c>
-      <c r="J2" t="n">
-        <v>625538.614759755</v>
-      </c>
       <c r="K2" t="n">
-        <v>625538.6147597545</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="L2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="M2" t="n">
+        <v>625538.6147597546</v>
+      </c>
+      <c r="N2" t="n">
+        <v>625538.6147597546</v>
+      </c>
+      <c r="O2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="M2" t="n">
-        <v>625538.614759755</v>
-      </c>
-      <c r="N2" t="n">
-        <v>625538.6147597549</v>
-      </c>
-      <c r="O2" t="n">
-        <v>625538.6147597549</v>
-      </c>
       <c r="P2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597546</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
+        <v>15436.6400068797</v>
+      </c>
+      <c r="F4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="F4" t="n">
-        <v>15436.64000687977</v>
-      </c>
       <c r="G4" t="n">
-        <v>15436.64000687979</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687976</v>
+        <v>15436.64000687973</v>
       </c>
       <c r="I4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687973</v>
       </c>
       <c r="J4" t="n">
+        <v>15436.64000687969</v>
+      </c>
+      <c r="K4" t="n">
         <v>15436.64000687967</v>
-      </c>
-      <c r="K4" t="n">
-        <v>15436.64000687968</v>
       </c>
       <c r="L4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="M4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="N4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="O4" t="n">
         <v>15436.64000687966</v>
-      </c>
-      <c r="N4" t="n">
-        <v>15436.64000687969</v>
-      </c>
-      <c r="O4" t="n">
-        <v>15436.64000687965</v>
       </c>
       <c r="P4" t="n">
         <v>15436.64000687967</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-893968.0587482185</v>
+        <v>-893968.0587482182</v>
       </c>
       <c r="C6" t="n">
         <v>434776.6869793738</v>
       </c>
       <c r="D6" t="n">
-        <v>434776.6869793744</v>
+        <v>434776.6869793741</v>
       </c>
       <c r="E6" t="n">
-        <v>183566.9831216127</v>
+        <v>183532.245196177</v>
       </c>
       <c r="F6" t="n">
-        <v>508979.4449289681</v>
+        <v>508944.7070035324</v>
       </c>
       <c r="G6" t="n">
-        <v>508979.4449289683</v>
+        <v>508944.7070035321</v>
       </c>
       <c r="H6" t="n">
-        <v>508979.444928968</v>
+        <v>508944.7070035323</v>
       </c>
       <c r="I6" t="n">
-        <v>508979.4449289682</v>
+        <v>508944.7070035323</v>
       </c>
       <c r="J6" t="n">
-        <v>291448.2425316905</v>
+        <v>291413.5046062549</v>
       </c>
       <c r="K6" t="n">
-        <v>508979.4449289677</v>
+        <v>508944.7070035321</v>
       </c>
       <c r="L6" t="n">
-        <v>508979.4449289679</v>
+        <v>508944.7070035323</v>
       </c>
       <c r="M6" t="n">
-        <v>423924.4169934564</v>
+        <v>423889.6790680203</v>
       </c>
       <c r="N6" t="n">
-        <v>508979.4449289682</v>
+        <v>508944.7070035321</v>
       </c>
       <c r="O6" t="n">
-        <v>508979.444928968</v>
+        <v>508944.7070035322</v>
       </c>
       <c r="P6" t="n">
-        <v>508979.4449289679</v>
+        <v>508944.7070035321</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26972,7 +26972,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>261.9597511231269</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>325.4417151617375</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27458,7 +27458,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.882938249764265e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,10 +27549,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>196.4201255520267</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>122.222632142863</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>11.20317071190033</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>49.33295317258191</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -27673,10 +27673,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>147.5895933246981</v>
       </c>
       <c r="C7" t="n">
-        <v>161.5991401375955</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27825,7 +27825,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,10 +27862,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>348.0505476041109</v>
+        <v>290.1909435705142</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,10 +27913,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,19 +28017,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>64.32149937285014</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>58.34628052367341</v>
       </c>
     </row>
     <row r="11">
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>7.07318341828168e-13</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28336,10 +28336,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28527,7 +28527,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>2.701199264265597e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>2.103206497849897e-12</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30511,7 +30511,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837935</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>524.5136961554247</v>
+        <v>567.4250434254229</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31911,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067199</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>538.585383513313</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>361.7519118779092</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32148,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,40 +32309,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>241.387751759078</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>734.267838362267</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32467,7 +32467,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32494,7 +32494,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043711</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
@@ -32546,10 +32546,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32558,19 +32558,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>709.4760096096878</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32783,28 +32783,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33023,7 +33023,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
@@ -33032,7 +33032,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>698.850866879865</v>
+        <v>510.682889626564</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33181,7 +33181,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K29" t="n">
         <v>699.5441750817575</v>
@@ -33257,10 +33257,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33269,16 +33269,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>301.1823051500301</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33421,7 +33421,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33503,16 +33503,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>393.3904345522228</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>473.8581708471803</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33734,25 +33734,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>204.3779992811859</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33910,7 +33910,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669223</v>
@@ -33971,7 +33971,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
@@ -33980,13 +33980,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>508.8976500257891</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>651.5998000366021</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33995,7 +33995,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,13 +34205,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>266.392684868584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34220,16 +34220,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>333.9544784328825</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34366,7 +34366,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34457,16 +34457,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>354.9153144485699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>344.9857809048118</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004602</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,31 +35483,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>393.1719840720914</v>
+        <v>436.0833313420897</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236314005</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>396.4513495912947</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998966</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.5501250924113</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402486</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,10 +36194,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36206,19 +36206,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>578.1342975263545</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36431,28 +36431,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36680,7 +36680,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>556.7168329578467</v>
+        <v>368.5488557045456</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36905,10 +36905,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36917,16 +36917,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>159.0482712280117</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37069,7 +37069,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37151,16 +37151,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>254.8360547723487</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>342.516458763847</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37382,25 +37382,25 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>77.54037261451921</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37558,7 +37558,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37619,7 +37619,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37628,13 +37628,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>366.7636161037707</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>509.0035555921577</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>128.551245894225</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37868,16 +37868,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>191.358233988438</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38105,16 +38105,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>220.9409070342396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>205.0040068187903</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>
